--- a/sandbox-ui-tests/src/main/resources/UseCases.xlsx
+++ b/sandbox-ui-tests/src/main/resources/UseCases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darjan.sivc/sandbox/sandbox-ui-tests/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E34A9E-9D59-1644-A239-2B59F45E5A32}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F3083AC-DA33-3541-B4D7-22BC54316F7C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37120" yWindow="-1140" windowWidth="35840" windowHeight="19780" tabRatio="916" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37120" yWindow="-1140" windowWidth="35840" windowHeight="19560" tabRatio="916" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UseCases" sheetId="23" r:id="rId1"/>
@@ -39,24 +39,6 @@
     <t>ExpectedResult</t>
   </si>
   <si>
-    <t>Mis desc</t>
-  </si>
-  <si>
-    <t>Puz desc</t>
-  </si>
-  <si>
-    <t>Ker desc</t>
-  </si>
-  <si>
-    <t>Mis ER</t>
-  </si>
-  <si>
-    <t>Puz ER</t>
-  </si>
-  <si>
-    <t>Ker ER</t>
-  </si>
-  <si>
     <t>UseCaseStep</t>
   </si>
   <si>
@@ -69,35 +51,59 @@
     <t>Step1, Step 2, Step 3</t>
   </si>
   <si>
-    <t>Piknik-Mis</t>
-  </si>
-  <si>
-    <t>Piknik-Puz</t>
-  </si>
-  <si>
-    <t>Piknik-Ker</t>
-  </si>
-  <si>
-    <t>Piknik-Kriza</t>
-  </si>
-  <si>
-    <t>Kriza desc</t>
-  </si>
-  <si>
-    <t>Kriza ER</t>
-  </si>
-  <si>
     <t>Step1, Step 2, Step 3, Step 4</t>
+  </si>
+  <si>
+    <t>QA Automation</t>
+  </si>
+  <si>
+    <t>This is QA Automation description</t>
+  </si>
+  <si>
+    <t>H-Tec Group</t>
+  </si>
+  <si>
+    <t>This is H-Tec Group description</t>
+  </si>
+  <si>
+    <t>Novi Sad</t>
+  </si>
+  <si>
+    <t>Java/Selenium/RestAssured</t>
+  </si>
+  <si>
+    <t>This is Novi Sad description</t>
+  </si>
+  <si>
+    <t>This is Java/Selenium/RestAssured description</t>
+  </si>
+  <si>
+    <t>Expected result 1</t>
+  </si>
+  <si>
+    <t>Expected result 2</t>
+  </si>
+  <si>
+    <t>Expected result 3</t>
+  </si>
+  <si>
+    <t>Expected result 4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -450,13 +456,14 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.5" customWidth="1"/>
     <col min="5" max="5" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.6640625" bestFit="1" customWidth="1"/>
@@ -476,63 +483,63 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -541,6 +548,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>